--- a/1_semester/Moduls/ПУ/Модуль 1/import/Пункты выдачи_import.xlsx
+++ b/1_semester/Moduls/ПУ/Модуль 1/import/Пункты выдачи_import.xlsx
@@ -1,18 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Новая папка (3)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ВКИ\VKI_Course3\1_semester\Moduls\ПУ\Модуль 1\import\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{682928CB-9A5F-4F78-8312-458864D0CF4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1764" yWindow="996" windowWidth="26760" windowHeight="16560"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="PickUpPoint" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,12 +26,15 @@
         <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>344288, г. Лесной, ул. Чехова, 1</t>
   </si>
@@ -138,12 +142,18 @@
   </si>
   <si>
     <t>190949, г. Лесной, ул. Мичурина, 26</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Addreses</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -497,192 +507,311 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A3EEE90-7BCA-4F89-9611-71D873FE3843}">
+  <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="39.796875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>35</v>
       </c>
     </row>
